--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1076,8 +1076,8 @@
   </sheetPr>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,39 +1161,47 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="7">
+        <v>44592</v>
+      </c>
+      <c r="B6" s="8">
+        <v>17400</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>12810</v>
+        <v>30210</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44585</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44595</v>
+      </c>
+      <c r="B7" s="16">
+        <v>10780</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44585</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1205,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1221,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1237,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1253,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1285,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1622,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44585</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1647,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1678,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>12810</v>
+        <v>40990</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1153,15 +1153,19 @@
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44604</v>
+      </c>
+      <c r="G5" s="8">
+        <v>29900</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>12810</v>
+        <v>-17090</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>30210</v>
+        <v>310</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,27 +1201,31 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>40990</v>
+        <v>11090</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44605</v>
+      </c>
+      <c r="B8" s="16">
+        <v>44765</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44600</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1237,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1253,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1269,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1285,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1301,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1317,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1333,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1349,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1365,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1381,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1397,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1413,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1429,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1445,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1461,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1477,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1493,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1509,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1525,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1541,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1557,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1573,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1589,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1605,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1621,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1638,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44600</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1663,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>40990</v>
+        <v>85755</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1671,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1694,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>40990</v>
+        <v>55855</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>17</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1205,7 +1205,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,39 +1225,47 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>44611</v>
+      </c>
+      <c r="B9" s="13">
+        <v>8700</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>55855</v>
+        <v>64555</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44609</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44623</v>
+      </c>
+      <c r="B10" s="13">
+        <v>16940</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1269,11 +1277,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,11 +1293,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1301,11 +1309,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,11 +1325,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1341,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1357,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1373,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1389,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1405,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1421,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1437,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1453,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1469,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1485,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1501,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1517,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1533,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1549,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1565,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1581,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1597,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1613,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1629,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1638,11 +1646,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44609</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1663,7 +1671,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>85755</v>
+        <v>111395</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1694,7 +1702,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>55855</v>
+        <v>81495</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-17090</v>
+        <v>-45495</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
@@ -1177,11 +1177,15 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44634</v>
+      </c>
+      <c r="G6" s="8">
+        <v>28405</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>310</v>
+        <v>-28095</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
@@ -1201,7 +1205,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>11090</v>
+        <v>-17315</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
@@ -1221,7 +1225,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>55855</v>
+        <v>27450</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
@@ -1241,7 +1245,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>64555</v>
+        <v>36150</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
@@ -1261,7 +1265,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>53090</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1269,19 +1273,23 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="53">
+        <v>44632</v>
+      </c>
+      <c r="B11" s="17">
+        <v>17760</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1293,7 +1301,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1309,7 +1317,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1325,7 +1333,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1341,7 +1349,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1357,7 +1365,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1373,7 +1381,7 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1389,7 +1397,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1405,7 +1413,7 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1421,7 +1429,7 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1437,7 +1445,7 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
@@ -1453,7 +1461,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1469,7 +1477,7 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1485,7 +1493,7 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1501,7 +1509,7 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1517,7 +1525,7 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1533,7 +1541,7 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1549,7 +1557,7 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1565,7 +1573,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1581,7 +1589,7 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1597,7 +1605,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1613,7 +1621,7 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1629,7 +1637,7 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
@@ -1646,7 +1654,7 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
@@ -1671,7 +1679,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>111395</v>
+        <v>129155</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1679,7 +1687,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>29900</v>
+        <v>58305</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1702,7 +1710,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>81495</v>
+        <v>70850</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,150 +1146,126 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44582</v>
+        <v>44680</v>
       </c>
       <c r="B5" s="8">
-        <v>12810</v>
+        <v>141245</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>44604</v>
+        <v>44687</v>
       </c>
       <c r="G5" s="8">
-        <v>29900</v>
+        <v>49205</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-45495</v>
+        <v>92040</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44592</v>
+        <v>44697</v>
       </c>
       <c r="B6" s="8">
-        <v>17400</v>
+        <v>4500</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44634</v>
-      </c>
-      <c r="G6" s="8">
-        <v>28405</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-28095</v>
+        <v>96540</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44595</v>
-      </c>
-      <c r="B7" s="16">
-        <v>10780</v>
-      </c>
+      <c r="A7" s="49"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-17315</v>
+        <v>96540</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>39</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44605</v>
-      </c>
-      <c r="B8" s="16">
-        <v>44765</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>27450</v>
+        <v>96540</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>29</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44611</v>
-      </c>
-      <c r="B9" s="13">
-        <v>8700</v>
-      </c>
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>36150</v>
+        <v>96540</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>23</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44623</v>
-      </c>
-      <c r="B10" s="13">
-        <v>16940</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>53090</v>
+        <v>96540</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53">
-        <v>44632</v>
-      </c>
-      <c r="B11" s="17">
-        <v>17760</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1301,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1317,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44634</v>
+        <v>44713</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1679,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>129155</v>
+        <v>145745</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1687,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>58305</v>
+        <v>49205</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1710,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>70850</v>
+        <v>96540</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1146,34 +1146,34 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7">
-        <v>44680</v>
+        <v>44716</v>
       </c>
       <c r="B5" s="8">
-        <v>141245</v>
+        <v>63790</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="F5" s="7">
-        <v>44687</v>
+        <v>44742</v>
       </c>
       <c r="G5" s="8">
-        <v>49205</v>
+        <v>20490</v>
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>92040</v>
+        <v>43300</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="7">
-        <v>44697</v>
+        <v>44727</v>
       </c>
       <c r="B6" s="8">
-        <v>4500</v>
+        <v>8930</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
@@ -1181,11 +1181,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1197,11 +1197,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1213,11 +1213,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1229,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1245,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1261,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1277,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1293,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1309,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1325,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1341,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1357,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1373,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1389,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1405,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1421,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1437,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1453,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1469,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1485,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1501,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1517,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1533,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1549,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1565,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1581,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1597,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1613,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1630,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44713</v>
+        <v>44747</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1655,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>145745</v>
+        <v>72720</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1663,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>49205</v>
+        <v>20490</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>96540</v>
+        <v>52230</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>43300</v>
+        <v>-2730</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1177,47 +1177,59 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44772</v>
+      </c>
+      <c r="G6" s="8">
+        <v>46030</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>52230</v>
+        <v>6200</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="49">
+        <v>44749</v>
+      </c>
+      <c r="B7" s="16">
+        <v>6460</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>52230</v>
+        <v>12660</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44747</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44763</v>
+      </c>
+      <c r="B8" s="16">
+        <v>4300</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44747</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,11 +1241,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1257,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1261,11 +1273,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1277,11 +1289,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1293,11 +1305,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1309,11 +1321,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1325,11 +1337,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1353,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1369,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1385,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1401,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1417,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1433,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1449,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1465,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1481,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1497,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1513,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1529,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1545,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1561,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1577,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1593,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1609,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1625,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1630,11 +1642,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44747</v>
+        <v>44772</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1655,7 +1667,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>72720</v>
+        <v>83480</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1663,7 +1675,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>20490</v>
+        <v>66520</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1686,7 +1698,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>52230</v>
+        <v>16960</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>56</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1229,55 +1229,67 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>44777</v>
+      </c>
+      <c r="B9" s="13">
+        <v>28565</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>16960</v>
+        <v>45525</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44772</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44782</v>
+      </c>
+      <c r="B10" s="13">
+        <v>9530</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>55055</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53"/>
-      <c r="B11" s="17"/>
+      <c r="A11" s="53">
+        <v>44786</v>
+      </c>
+      <c r="B11" s="17">
+        <v>16760</v>
+      </c>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1289,11 +1301,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1305,11 +1317,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1321,11 +1333,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1337,11 +1349,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1353,11 +1365,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1369,11 +1381,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1385,11 +1397,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1401,11 +1413,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1417,11 +1429,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1433,11 +1445,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1449,11 +1461,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,11 +1477,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1481,11 +1493,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1497,11 +1509,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1513,11 +1525,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1529,11 +1541,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1545,11 +1557,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1561,11 +1573,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1577,11 +1589,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1593,11 +1605,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1609,11 +1621,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1625,11 +1637,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1642,11 +1654,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44772</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1667,7 +1679,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>83480</v>
+        <v>138335</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1698,7 +1710,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>16960</v>
+        <v>71815</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1077,7 +1077,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1161,11 +1161,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-2730</v>
+        <v>-32130</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1185,11 +1185,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>6200</v>
+        <v>-23200</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1201,15 +1201,19 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>44804</v>
+      </c>
+      <c r="G7" s="16">
+        <v>29400</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>12660</v>
+        <v>-16740</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1225,11 +1229,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>16960</v>
+        <v>-12440</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1245,11 +1249,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>45525</v>
+        <v>16125</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1265,11 +1269,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>55055</v>
+        <v>25655</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1285,27 +1289,31 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>42415</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="17"/>
+      <c r="A12" s="53">
+        <v>44804</v>
+      </c>
+      <c r="B12" s="17">
+        <v>18590</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1317,11 +1325,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1333,11 +1341,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1349,11 +1357,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1365,11 +1373,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1381,11 +1389,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1397,11 +1405,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1413,11 +1421,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1429,11 +1437,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1445,11 +1453,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1461,11 +1469,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1477,11 +1485,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1493,11 +1501,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1509,11 +1517,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1525,11 +1533,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1541,11 +1549,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1557,11 +1565,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1573,11 +1581,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1589,11 +1597,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1605,11 +1613,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,11 +1629,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1637,11 +1645,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1654,11 +1662,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44795</v>
+        <v>44806</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1679,7 +1687,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>138335</v>
+        <v>156925</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1687,7 +1695,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>66520</v>
+        <v>95920</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1710,7 +1718,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>71815</v>
+        <v>61005</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>CUSTOMER NAME - WALKER BHILAI</t>
+  </si>
+  <si>
+    <t>TRANSFER  NEFT</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A13" sqref="A13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1145,175 +1148,143 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A5" s="7">
-        <v>44716</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>63790</v>
+        <v>61005</v>
       </c>
       <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="F5" s="7">
-        <v>44742</v>
-      </c>
-      <c r="G5" s="8">
-        <v>20490</v>
-      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-32130</v>
+        <v>61005</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>90</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="7">
-        <v>44727</v>
-      </c>
-      <c r="B6" s="8">
-        <v>8930</v>
+      <c r="A6" s="53">
+        <v>44806</v>
+      </c>
+      <c r="B6" s="13">
+        <v>24105</v>
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44772</v>
-      </c>
-      <c r="G6" s="8">
-        <v>46030</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-23200</v>
+        <v>85110</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>79</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="49">
-        <v>44749</v>
-      </c>
-      <c r="B7" s="16">
-        <v>6460</v>
+      <c r="A7" s="53">
+        <v>44810</v>
+      </c>
+      <c r="B7" s="17">
+        <v>11075</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>44804</v>
-      </c>
-      <c r="G7" s="16">
-        <v>29400</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-16740</v>
+        <v>96185</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44763</v>
-      </c>
-      <c r="B8" s="16">
-        <v>4300</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>-12440</v>
+        <v>96185</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>43</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44777</v>
-      </c>
-      <c r="B9" s="13">
-        <v>28565</v>
-      </c>
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>16125</v>
+        <v>96185</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>29</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44782</v>
-      </c>
-      <c r="B10" s="13">
-        <v>9530</v>
-      </c>
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>25655</v>
+        <v>96185</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="53">
-        <v>44786</v>
-      </c>
-      <c r="B11" s="17">
-        <v>16760</v>
-      </c>
+      <c r="A11" s="53"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
       <c r="F11" s="15"/>
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>42415</v>
+        <v>96185</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="53">
-        <v>44804</v>
-      </c>
-      <c r="B12" s="17">
-        <v>18590</v>
-      </c>
+      <c r="A12" s="53"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="14"/>
       <c r="D12" s="18"/>
       <c r="F12" s="15"/>
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1325,11 +1296,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1341,11 +1312,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1357,11 +1328,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1373,11 +1344,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1389,11 +1360,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1405,11 +1376,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1421,11 +1392,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1437,11 +1408,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1453,11 +1424,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1469,11 +1440,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1485,11 +1456,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1501,11 +1472,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1517,11 +1488,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1533,11 +1504,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1549,11 +1520,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1565,11 +1536,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1581,11 +1552,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1597,11 +1568,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1613,11 +1584,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1629,11 +1600,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1645,11 +1616,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1662,11 +1633,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44806</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1687,7 +1658,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>156925</v>
+        <v>96185</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1695,7 +1666,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>95920</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1718,7 +1689,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>61005</v>
+        <v>96185</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>DATE</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>TRANSFER  NEFT</t>
+  </si>
+  <si>
+    <t>gr-1-10-22</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1080,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B15"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,12 +1099,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:15">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:15" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1112,7 +1115,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" thickBot="1">
+    <row r="3" spans="1:15" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1121,7 +1124,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>61005</v>
@@ -1156,18 +1159,22 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44835</v>
+      </c>
+      <c r="G5" s="8">
+        <v>11200</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>61005</v>
+        <v>9660</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A6" s="53">
         <v>44806</v>
       </c>
@@ -1176,18 +1183,22 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>44835</v>
+      </c>
+      <c r="G6" s="8">
+        <v>39255</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>85110</v>
+        <v>33765</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
       <c r="A7" s="53">
         <v>44810</v>
       </c>
@@ -1196,18 +1207,22 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16">
+        <v>890</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="19"/>
@@ -1216,14 +1231,14 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="53"/>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -1232,14 +1247,18 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+      <c r="O9">
+        <f>SUM(G5:G6)</f>
+        <v>50455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="53"/>
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
@@ -1248,14 +1267,14 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
@@ -1264,14 +1283,14 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="53"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1280,14 +1299,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1296,14 +1315,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1312,14 +1331,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1328,14 +1347,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>44838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1344,11 +1363,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1360,11 +1379,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1376,11 +1395,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1392,11 +1411,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1408,11 +1427,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1443,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1459,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1475,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1491,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1507,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1523,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1539,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1555,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1571,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1587,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1603,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1619,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1635,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1633,11 +1652,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44817</v>
+        <v>44838</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1666,7 +1685,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>51345</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1689,7 +1708,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>96185</v>
+        <v>44840</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1083,7 +1083,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
@@ -1219,23 +1219,27 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>44848</v>
+      </c>
+      <c r="B8" s="16">
+        <v>27790</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44838</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1251,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
       <c r="O9">
         <f>SUM(G5:G6)</f>
@@ -1267,11 +1271,11 @@
       <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,11 +1287,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1299,11 +1303,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1315,11 +1319,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,11 +1335,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,11 +1351,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1367,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1383,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1399,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1415,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1431,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1447,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1463,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1479,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1495,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1511,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1527,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1543,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1559,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1575,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1591,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1607,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1623,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1635,11 +1639,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1652,11 +1656,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44838</v>
+        <v>44853</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1677,7 +1681,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>96185</v>
+        <v>123975</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1708,7 +1712,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>44840</v>
+        <v>72630</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>DATE</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>gr-1-10-22</t>
+  </si>
+  <si>
+    <t>rtgs</t>
+  </si>
+  <si>
+    <t>cash</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="68">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -595,21 +601,6 @@
     <dxf>
       <font>
         <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
       </font>
     </dxf>
     <dxf>
@@ -1083,7 +1074,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,11 +1158,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>9660</v>
+        <v>-22990</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,11 +1182,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>33765</v>
+        <v>1115</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
@@ -1215,11 +1206,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>44840</v>
+        <v>12190</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,15 +1222,22 @@
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
+      <c r="F8" s="15">
+        <v>44865</v>
+      </c>
+      <c r="G8" s="16">
+        <v>21750</v>
+      </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,15 +1245,22 @@
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="F9" s="15">
+        <v>44865</v>
+      </c>
+      <c r="G9" s="16">
+        <v>10900</v>
+      </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44853</v>
+        <v>44865</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
       </c>
       <c r="O9">
         <f>SUM(G5:G6)</f>
@@ -1268,14 +1273,13 @@
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,11 +1291,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,11 +1307,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1319,11 +1323,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1339,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1355,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1371,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1387,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1403,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1419,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1435,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1451,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1467,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1483,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1499,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1515,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1531,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1547,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1563,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1579,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1595,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1611,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,11 +1627,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1639,11 +1643,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1656,11 +1660,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44853</v>
+        <v>44865</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1689,7 +1693,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>51345</v>
+        <v>83995</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1712,7 +1716,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>72630</v>
+        <v>39980</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -1721,185 +1725,170 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" thickTop="1"/>
   </sheetData>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="70" priority="71" operator="lessThanOrEqual">
+  <conditionalFormatting sqref="H5:H14 H16:H34">
+    <cfRule type="cellIs" dxfId="67" priority="71" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="69" operator="greaterThan">
       <formula>$H$5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="70" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="65" priority="70" operator="greaterThanOrEqual">
       <formula>365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:I34">
-    <cfRule type="cellIs" dxfId="67" priority="68" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="64" priority="68" operator="greaterThanOrEqual">
       <formula>365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I34">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="66" operator="lessThan">
       <formula>365</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="67" operator="greaterThan">
       <formula>365</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="64" priority="65" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="61" priority="65" operator="lessThanOrEqual">
       <formula>$H$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="63" priority="64" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="60" priority="64" operator="lessThanOrEqual">
       <formula>$H$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="59" priority="63" operator="lessThanOrEqual">
       <formula>$H$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="61" priority="62" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="58" priority="62" operator="lessThanOrEqual">
       <formula>$H$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="60" priority="61" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="57" priority="61" operator="lessThanOrEqual">
       <formula>$H$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="56" priority="60" operator="lessThanOrEqual">
       <formula>$H$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="58" priority="59" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="55" priority="59" operator="lessThanOrEqual">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="57" priority="58" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="54" priority="58" operator="lessThanOrEqual">
       <formula>$H$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="53" priority="57" operator="lessThanOrEqual">
       <formula>$H$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="55" priority="56" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="56" operator="lessThanOrEqual">
       <formula>$H$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="54" priority="55" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="55" operator="lessThanOrEqual">
       <formula>$H$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="50" priority="54" operator="lessThanOrEqual">
       <formula>$H$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="52" priority="53" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="49" priority="53" operator="lessThanOrEqual">
       <formula>$H$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="48" priority="52" operator="lessThanOrEqual">
       <formula>$H$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="lessThanOrEqual">
       <formula>$H$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="49" priority="50" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="lessThanOrEqual">
       <formula>$H$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="48" priority="49" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="45" priority="49" operator="lessThanOrEqual">
       <formula>$H$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="44" priority="48" operator="lessThanOrEqual">
       <formula>$H$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="46" priority="47" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="lessThanOrEqual">
       <formula>$H$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="45" priority="46" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="lessThanOrEqual">
       <formula>$H$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="41" priority="45" operator="lessThanOrEqual">
       <formula>$H$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="40" priority="44" operator="lessThanOrEqual">
       <formula>$H$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="42" priority="43" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="39" priority="43" operator="lessThanOrEqual">
       <formula>$H$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="38" priority="42" operator="lessThanOrEqual">
       <formula>$H$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="37" priority="41" operator="lessThanOrEqual">
       <formula>$H$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="36" priority="40" operator="lessThanOrEqual">
       <formula>$H$7</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="lessThanOrEqual">
       <formula>$H$6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="lessThanOrEqual">
       <formula>$H$5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I34">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="greaterThanOrEqual">
-      <formula>365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6:I34">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="greaterThanOrEqual">
-      <formula>365</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H14 H16:H34">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="lessThanOrEqual">
-      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>DATE</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>cash</t>
+  </si>
+  <si>
+    <t>neft</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -294,13 +297,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
@@ -427,6 +441,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1074,7 +1091,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,11 +1175,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-22990</v>
+        <v>-57730</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
@@ -1182,11 +1199,11 @@
       </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>1115</v>
+        <v>-33625</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>59</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
@@ -1206,11 +1223,11 @@
       </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>12190</v>
+        <v>-22550</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>55</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1230,19 +1247,23 @@
       </c>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>39980</v>
+        <v>5240</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="53">
+        <v>44872</v>
+      </c>
+      <c r="B9" s="13">
+        <v>21070</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
       <c r="F9" s="15">
@@ -1253,11 +1274,11 @@
       </c>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>39980</v>
+        <v>26310</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44865</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
         <v>15</v>
@@ -1268,18 +1289,27 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="53">
+        <v>44874</v>
+      </c>
+      <c r="B10" s="13">
+        <v>7480</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15"/>
+      <c r="F10" s="15">
+        <v>44897</v>
+      </c>
+      <c r="G10" s="56">
+        <v>11650</v>
+      </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,15 +1317,22 @@
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
+      <c r="F11" s="15">
+        <v>44897</v>
+      </c>
+      <c r="G11" s="16">
+        <v>23090</v>
+      </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1344,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1323,11 +1360,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1376,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1392,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1408,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1424,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1440,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1456,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1472,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1488,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1504,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1520,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1536,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1552,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1568,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1584,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1600,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1616,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1632,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1648,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1627,11 +1664,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1643,11 +1680,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1660,11 +1697,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44865</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1685,7 +1722,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>123975</v>
+        <v>152525</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1693,7 +1730,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>83995</v>
+        <v>118735</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1716,7 +1753,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>39980</v>
+        <v>33790</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>DATE</t>
   </si>
@@ -54,19 +54,7 @@
     <t>CUSTOMER NAME - WALKER BHILAI</t>
   </si>
   <si>
-    <t>TRANSFER  NEFT</t>
-  </si>
-  <si>
-    <t>gr-1-10-22</t>
-  </si>
-  <si>
-    <t>rtgs</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>neft</t>
+    <t>transfer</t>
   </si>
 </sst>
 </file>
@@ -1088,10 +1076,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1107,12 +1095,12 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:9">
       <c r="E1" s="34" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75">
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="41" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1111,7 @@
       <c r="F2" s="42"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5" thickBot="1">
+    <row r="3" spans="1:9" ht="16.5" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1132,7 +1120,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+    <row r="4" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1158,184 +1146,123 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
+    <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
-        <v>61005</v>
+        <v>33805</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7">
-        <v>44835</v>
-      </c>
-      <c r="G5" s="8">
-        <v>11200</v>
-      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-57730</v>
+        <v>33805</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="53">
-        <v>44806</v>
-      </c>
-      <c r="B6" s="13">
-        <v>24105</v>
-      </c>
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>44835</v>
-      </c>
-      <c r="G6" s="8">
-        <v>39255</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-33625</v>
+        <v>33805</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="53">
-        <v>44810</v>
-      </c>
-      <c r="B7" s="17">
-        <v>11075</v>
-      </c>
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
+      <c r="A7" s="53"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16">
-        <v>890</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>-22550</v>
+        <v>33805</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>44848</v>
-      </c>
-      <c r="B8" s="16">
-        <v>27790</v>
-      </c>
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
-      <c r="F8" s="15">
-        <v>44865</v>
-      </c>
-      <c r="G8" s="16">
-        <v>21750</v>
-      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>5240</v>
+        <v>33805</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>49</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>44872</v>
-      </c>
-      <c r="B9" s="13">
-        <v>21070</v>
-      </c>
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="53"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18"/>
-      <c r="F9" s="15">
-        <v>44865</v>
-      </c>
-      <c r="G9" s="16">
-        <v>10900</v>
-      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>26310</v>
+        <v>33805</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O9">
-        <f>SUM(G5:G6)</f>
-        <v>50455</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="53">
-        <v>44874</v>
-      </c>
-      <c r="B10" s="13">
-        <v>7480</v>
-      </c>
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="53"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="18"/>
-      <c r="F10" s="15">
-        <v>44897</v>
-      </c>
-      <c r="G10" s="56">
-        <v>11650</v>
-      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="53"/>
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="18"/>
-      <c r="F11" s="15">
-        <v>44897</v>
-      </c>
-      <c r="G11" s="16">
-        <v>23090</v>
-      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
-      </c>
-      <c r="J11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="53"/>
       <c r="B12" s="17"/>
       <c r="C12" s="14"/>
@@ -1344,14 +1271,14 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="A13" s="53"/>
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
@@ -1360,14 +1287,14 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="53"/>
       <c r="B14" s="17"/>
       <c r="C14" s="14"/>
@@ -1376,14 +1303,14 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="53"/>
       <c r="B15" s="17"/>
       <c r="C15" s="19"/>
@@ -1392,14 +1319,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="16.5" thickTop="1" thickBot="1">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="53"/>
       <c r="B16" s="17"/>
       <c r="C16" s="14"/>
@@ -1408,11 +1335,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1424,11 +1351,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1440,11 +1367,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1456,11 +1383,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1472,11 +1399,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1488,11 +1415,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1504,11 +1431,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1520,11 +1447,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1536,11 +1463,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1552,11 +1479,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1568,11 +1495,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1584,11 +1511,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1600,11 +1527,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1616,11 +1543,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1559,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1575,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1664,11 +1591,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1680,11 +1607,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1697,11 +1624,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44897</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1722,7 +1649,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>152525</v>
+        <v>33805</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1730,7 +1657,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>118735</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1753,7 +1680,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>33790</v>
+        <v>33805</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1163,23 +1163,27 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="53">
+        <v>44919</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4950</v>
+      </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
       <c r="F6" s="7"/>
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>44915</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1191,11 +1195,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1207,11 +1211,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,11 +1227,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,11 +1243,11 @@
       <c r="G10" s="56"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,11 +1259,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,11 +1275,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1287,11 +1291,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1303,11 +1307,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,11 +1323,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,11 +1339,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,11 +1355,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,11 +1371,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,11 +1387,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,11 +1403,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,11 +1419,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,11 +1435,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,11 +1451,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,11 +1467,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,11 +1483,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,11 +1499,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,11 +1515,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,11 +1531,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,11 +1547,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,11 +1563,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,11 +1579,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,11 +1595,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,11 +1611,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1624,11 +1628,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44915</v>
+        <v>44932</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1649,7 +1653,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1680,7 +1684,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>33805</v>
+        <v>38755</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1155,15 +1155,19 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
+      <c r="F5" s="7">
+        <v>44954</v>
+      </c>
+      <c r="G5" s="8">
+        <v>33805</v>
+      </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>33805</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1179,11 +1183,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1195,11 +1199,11 @@
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1211,11 +1215,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1227,11 +1231,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,11 +1247,11 @@
       <c r="G10" s="56"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1259,11 +1263,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1275,11 +1279,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1291,11 +1295,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1307,11 +1311,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1323,11 +1327,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1339,11 +1343,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1355,11 +1359,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1371,11 +1375,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1387,11 +1391,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1403,11 +1407,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1419,11 +1423,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1435,11 +1439,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1451,11 +1455,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1467,11 +1471,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1483,11 +1487,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1499,11 +1503,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1515,11 +1519,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1531,11 +1535,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1547,11 +1551,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1563,11 +1567,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1579,11 +1583,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1595,11 +1599,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1611,11 +1615,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1628,11 +1632,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44932</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1661,7 +1665,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>0</v>
+        <v>33805</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1684,7 +1688,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>38755</v>
+        <v>4950</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1187,23 +1187,27 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="17"/>
+      <c r="A7" s="53">
+        <v>44989</v>
+      </c>
+      <c r="B7" s="17">
+        <v>22440</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
       <c r="F7" s="49"/>
       <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>44957</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1215,11 +1219,11 @@
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1231,11 +1235,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1251,11 @@
       <c r="G10" s="56"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1267,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1283,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1295,11 +1299,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1311,11 +1315,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1331,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1347,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1363,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1379,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1395,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1411,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1427,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1443,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1459,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1475,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1491,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1507,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1523,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1539,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1555,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1571,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1587,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1603,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1619,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1632,11 +1636,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>44957</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1657,7 +1661,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>38755</v>
+        <v>61195</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1688,7 +1692,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>4950</v>
+        <v>27390</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1287,7 +1287,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1399,7 +1399,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1415,7 +1415,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1511,7 +1511,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1079,7 +1079,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1163,11 +1163,11 @@
       </c>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>0</v>
+        <v>-27390</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1179,15 +1179,19 @@
       </c>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="F6" s="7">
+        <v>45041</v>
+      </c>
+      <c r="G6" s="8">
+        <v>24750</v>
+      </c>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>4950</v>
+        <v>-22440</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>109</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1199,31 +1203,39 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16"/>
+      <c r="F7" s="49">
+        <v>45024</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2640</v>
+      </c>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
-        <v>27390</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="15">
+        <v>45034</v>
+      </c>
+      <c r="B8" s="16">
+        <v>6800</v>
+      </c>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45028</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1235,11 +1247,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1251,11 +1263,11 @@
       <c r="G10" s="56"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1267,11 +1279,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1283,11 +1295,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1299,11 +1311,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1315,11 +1327,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1331,11 +1343,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1347,11 +1359,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1363,11 +1375,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1379,11 +1391,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1395,11 +1407,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1411,11 +1423,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1427,11 +1439,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1443,11 +1455,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1459,11 +1471,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1475,11 +1487,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1491,11 +1503,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1507,11 +1519,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1523,11 +1535,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,11 +1551,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1555,11 +1567,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1571,11 +1583,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1587,11 +1599,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1603,11 +1615,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1619,11 +1631,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1636,11 +1648,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45028</v>
+        <v>45044</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1661,7 +1673,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>61195</v>
+        <v>67995</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1669,7 +1681,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>33805</v>
+        <v>61195</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1692,7 +1704,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>27390</v>
+        <v>6800</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>DATE</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>CUSTOMER NAME - WALKER BHILAI</t>
-  </si>
-  <si>
-    <t>transfer</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1076,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A5" sqref="A5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1148,94 +1145,66 @@
     </row>
     <row r="5" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
       <c r="A5" s="7"/>
-      <c r="B5" s="8">
-        <v>33805</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7">
-        <v>44954</v>
-      </c>
-      <c r="G5" s="8">
-        <v>33805</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="10">
         <f>B5:B34+C5-G36</f>
-        <v>-27390</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A6" s="53">
-        <v>44919</v>
-      </c>
-      <c r="B6" s="13">
-        <v>4950</v>
-      </c>
+      <c r="A6" s="53"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="50"/>
       <c r="D6" s="9"/>
-      <c r="F6" s="7">
-        <v>45041</v>
-      </c>
-      <c r="G6" s="8">
-        <v>24750</v>
-      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="10">
         <f>B6+H5+C6</f>
-        <v>-22440</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>125</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A7" s="53">
-        <v>44989</v>
-      </c>
-      <c r="B7" s="17">
-        <v>22440</v>
-      </c>
+      <c r="A7" s="53"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="9"/>
       <c r="D7" s="51"/>
-      <c r="F7" s="49">
-        <v>45024</v>
-      </c>
-      <c r="G7" s="16">
-        <v>2640</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="16"/>
       <c r="H7" s="10">
         <f>B7+H6+C7</f>
         <v>0</v>
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>55</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A8" s="15">
-        <v>45034</v>
-      </c>
-      <c r="B8" s="16">
-        <v>6800</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="19"/>
       <c r="D8" s="52"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="10">
         <f>H7+B8+C8</f>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>10</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1247,11 +1216,11 @@
       <c r="G9" s="16"/>
       <c r="H9" s="10">
         <f t="shared" ref="H9:H34" si="0">B9+H8+C9</f>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1263,11 +1232,11 @@
       <c r="G10" s="56"/>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1279,11 +1248,11 @@
       <c r="G11" s="16"/>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1295,11 +1264,11 @@
       <c r="G12" s="16"/>
       <c r="H12" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1311,11 +1280,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1327,11 +1296,11 @@
       <c r="G14" s="16"/>
       <c r="H14" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1343,11 +1312,11 @@
       <c r="G15" s="16"/>
       <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1359,11 +1328,11 @@
       <c r="G16" s="16"/>
       <c r="H16" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1375,11 +1344,11 @@
       <c r="G17" s="16"/>
       <c r="H17" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,11 +1360,11 @@
       <c r="G18" s="16"/>
       <c r="H18" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1407,11 +1376,11 @@
       <c r="G19" s="16"/>
       <c r="H19" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1423,11 +1392,11 @@
       <c r="G20" s="16"/>
       <c r="H20" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1439,11 +1408,11 @@
       <c r="G21" s="16"/>
       <c r="H21" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1455,11 +1424,11 @@
       <c r="G22" s="16"/>
       <c r="H22" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1471,11 +1440,11 @@
       <c r="G23" s="16"/>
       <c r="H23" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1487,11 +1456,11 @@
       <c r="G24" s="16"/>
       <c r="H24" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1503,11 +1472,11 @@
       <c r="G25" s="16"/>
       <c r="H25" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1519,11 +1488,11 @@
       <c r="G26" s="16"/>
       <c r="H26" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1535,11 +1504,11 @@
       <c r="G27" s="16"/>
       <c r="H27" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1551,11 +1520,11 @@
       <c r="G28" s="16"/>
       <c r="H28" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1567,11 +1536,11 @@
       <c r="G29" s="16"/>
       <c r="H29" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1583,11 +1552,11 @@
       <c r="G30" s="16"/>
       <c r="H30" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1599,11 +1568,11 @@
       <c r="G31" s="16"/>
       <c r="H31" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1615,11 +1584,11 @@
       <c r="G32" s="16"/>
       <c r="H32" s="10">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1631,11 +1600,11 @@
       <c r="G33" s="16"/>
       <c r="H33" s="10">
         <f>B33+H32+C33</f>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1648,11 +1617,11 @@
       <c r="G34" s="22"/>
       <c r="H34" s="25">
         <f t="shared" si="0"/>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45044</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
@@ -1673,7 +1642,7 @@
       <c r="A36" s="39"/>
       <c r="B36" s="29">
         <f>SUM( B5:C34)</f>
-        <v>67995</v>
+        <v>0</v>
       </c>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -1681,7 +1650,7 @@
       <c r="F36" s="27"/>
       <c r="G36" s="29">
         <f>SUM(G5:G35)</f>
-        <v>61195</v>
+        <v>0</v>
       </c>
       <c r="I36" s="37"/>
     </row>
@@ -1704,7 +1673,7 @@
       </c>
       <c r="E38" s="33">
         <f>B36-G36</f>
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>

--- a/IMPORTANT/WALKER BHILAI.xlsx
+++ b/IMPORTANT/WALKER BHILAI.xlsx
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="I5" s="11">
         <f ca="1">TODAY()-A5</f>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="I6" s="11">
         <f ca="1">TODAY()-A6</f>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.25" thickTop="1" thickBot="1">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="I7" s="11">
         <f ca="1">TODAY()-A7</f>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I8" s="11">
         <f ca="1">TODAY()-A8</f>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="I9" s="11">
         <f t="shared" ref="I9:I33" ca="1" si="1">TODAY()-A9</f>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="I10" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="I11" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="I12" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="I13" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="I14" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="I15" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="I16" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="I17" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="I18" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="I19" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="I20" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I21" s="11">
         <f ca="1">TODAY()-A21</f>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="I22" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I23" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I24" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="I25" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="I26" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="I27" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="I28" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="I29" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="I30" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="I31" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="I32" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I33" s="11">
         <f t="shared" ca="1" si="1"/>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="I34" s="11">
         <f ca="1">TODAY()-A34</f>
-        <v>45091</v>
+        <v>45150</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" thickTop="1">
